--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H2">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I2">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J2">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N2">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O2">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P2">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q2">
-        <v>5.29287048246</v>
+        <v>15.89085915543875</v>
       </c>
       <c r="R2">
-        <v>21.17148192984</v>
+        <v>63.563436621755</v>
       </c>
       <c r="S2">
-        <v>0.008211962949275967</v>
+        <v>0.01350797728476759</v>
       </c>
       <c r="T2">
-        <v>0.004255801691537764</v>
+        <v>0.0070352354757033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H3">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I3">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J3">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P3">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q3">
-        <v>29.97269282744</v>
+        <v>33.80858345578</v>
       </c>
       <c r="R3">
-        <v>179.83615696464</v>
+        <v>202.85150073468</v>
       </c>
       <c r="S3">
-        <v>0.04650305421314018</v>
+        <v>0.02873888522223432</v>
       </c>
       <c r="T3">
-        <v>0.03614990313602245</v>
+        <v>0.02245171359693031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H4">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I4">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J4">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N4">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O4">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P4">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q4">
-        <v>15.32055974386667</v>
+        <v>39.76166461411901</v>
       </c>
       <c r="R4">
-        <v>91.9233584632</v>
+        <v>238.569987684714</v>
       </c>
       <c r="S4">
-        <v>0.02377006378594165</v>
+        <v>0.03379928405118618</v>
       </c>
       <c r="T4">
-        <v>0.01847804446263792</v>
+        <v>0.02640505501276118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H5">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I5">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J5">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N5">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O5">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P5">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q5">
-        <v>12.730892192986</v>
+        <v>21.01972951126825</v>
       </c>
       <c r="R5">
-        <v>50.923568771944</v>
+        <v>84.07891804507301</v>
       </c>
       <c r="S5">
-        <v>0.01975215818079822</v>
+        <v>0.0178677581868185</v>
       </c>
       <c r="T5">
-        <v>0.01023644026606014</v>
+        <v>0.009305900033526477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H6">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I6">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J6">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N6">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O6">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P6">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q6">
-        <v>5.027655743198</v>
+        <v>50.94442414418</v>
       </c>
       <c r="R6">
-        <v>30.165934459188</v>
+        <v>305.66654486508</v>
       </c>
       <c r="S6">
-        <v>0.007800478553495102</v>
+        <v>0.04330515533451337</v>
       </c>
       <c r="T6">
-        <v>0.006063828470943499</v>
+        <v>0.0338313381790069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H7">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I7">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J7">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N7">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O7">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P7">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q7">
-        <v>20.01869781522601</v>
+        <v>16.91824013445067</v>
       </c>
       <c r="R7">
-        <v>120.112186891356</v>
+        <v>101.509440806704</v>
       </c>
       <c r="S7">
-        <v>0.03105929103993148</v>
+        <v>0.01438129941238493</v>
       </c>
       <c r="T7">
-        <v>0.02414444344710999</v>
+        <v>0.01123511970146857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J8">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N8">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O8">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P8">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q8">
-        <v>5.27602938775</v>
+        <v>14.04307145639583</v>
       </c>
       <c r="R8">
-        <v>31.6561763265</v>
+        <v>84.258428738375</v>
       </c>
       <c r="S8">
-        <v>0.008185833754117675</v>
+        <v>0.01193727087917957</v>
       </c>
       <c r="T8">
-        <v>0.006363390583823648</v>
+        <v>0.009325768373957806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J9">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P9">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q9">
         <v>29.87732435766667</v>
@@ -1013,10 +1013,10 @@
         <v>268.895919219</v>
       </c>
       <c r="S9">
-        <v>0.04635508869180294</v>
+        <v>0.02539713018693933</v>
       </c>
       <c r="T9">
-        <v>0.0540523196086194</v>
+        <v>0.02976154548437199</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J10">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N10">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O10">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P10">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q10">
-        <v>15.27181209388889</v>
+        <v>35.13818176471667</v>
       </c>
       <c r="R10">
-        <v>137.446308845</v>
+        <v>316.24363588245</v>
       </c>
       <c r="S10">
-        <v>0.02369443112181198</v>
+        <v>0.02986910628701765</v>
       </c>
       <c r="T10">
-        <v>0.0276288752774423</v>
+        <v>0.03500201632213417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J11">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N11">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O11">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P11">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q11">
-        <v>12.69038446435833</v>
+        <v>18.57555722025417</v>
       </c>
       <c r="R11">
-        <v>76.14230678615</v>
+        <v>111.453343321525</v>
       </c>
       <c r="S11">
-        <v>0.01968930987046225</v>
+        <v>0.01579009684301528</v>
       </c>
       <c r="T11">
-        <v>0.01530580424610519</v>
+        <v>0.01233571619934987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J12">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N12">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O12">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P12">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q12">
-        <v>5.011658520741667</v>
+        <v>45.02061100433334</v>
       </c>
       <c r="R12">
-        <v>45.104926686675</v>
+        <v>405.185499039</v>
       </c>
       <c r="S12">
-        <v>0.007775658637999706</v>
+        <v>0.03826963569712047</v>
       </c>
       <c r="T12">
-        <v>0.009066801460850264</v>
+        <v>0.04484614974552981</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J13">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N13">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O13">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P13">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q13">
-        <v>19.95500141702501</v>
+        <v>14.95098866591111</v>
       </c>
       <c r="R13">
-        <v>179.595012753225</v>
+        <v>134.5588979932</v>
       </c>
       <c r="S13">
-        <v>0.03096046518281627</v>
+        <v>0.01270904318693327</v>
       </c>
       <c r="T13">
-        <v>0.0361014293472605</v>
+        <v>0.01489305146237647</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H14">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I14">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J14">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N14">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O14">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P14">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q14">
-        <v>10.54801163295</v>
+        <v>27.19261148396333</v>
       </c>
       <c r="R14">
-        <v>63.2880697977</v>
+        <v>163.15566890378</v>
       </c>
       <c r="S14">
-        <v>0.01636538830968303</v>
+        <v>0.02311499804044077</v>
       </c>
       <c r="T14">
-        <v>0.01272189993084944</v>
+        <v>0.01805815750278549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H15">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I15">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J15">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.99588</v>
       </c>
       <c r="O15">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P15">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q15">
-        <v>59.73173038380001</v>
+        <v>57.85361670778666</v>
       </c>
       <c r="R15">
-        <v>537.5855734542</v>
+        <v>520.68255037008</v>
       </c>
       <c r="S15">
-        <v>0.0926746192700955</v>
+        <v>0.04917829380313678</v>
       </c>
       <c r="T15">
-        <v>0.1080631767031895</v>
+        <v>0.05762942573009857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H16">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I16">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J16">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N16">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O16">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P16">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q16">
-        <v>30.531909469</v>
+        <v>68.04059410704266</v>
       </c>
       <c r="R16">
-        <v>274.787185221</v>
+        <v>612.365346963384</v>
       </c>
       <c r="S16">
-        <v>0.04737068669278002</v>
+        <v>0.05783770346523139</v>
       </c>
       <c r="T16">
-        <v>0.0552365569661977</v>
+        <v>0.06777692714578104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H17">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I17">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J17">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N17">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O17">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P17">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q17">
-        <v>25.371034374345</v>
+        <v>35.96919036956466</v>
       </c>
       <c r="R17">
-        <v>152.22620624607</v>
+        <v>215.815142217388</v>
       </c>
       <c r="S17">
-        <v>0.03936351644298952</v>
+        <v>0.0305755026654596</v>
       </c>
       <c r="T17">
-        <v>0.0305998676986943</v>
+        <v>0.0238865364337785</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H18">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I18">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J18">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N18">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O18">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P18">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q18">
-        <v>10.019472692835</v>
+        <v>87.17665416805332</v>
       </c>
       <c r="R18">
-        <v>90.17525423551501</v>
+        <v>784.5898875124799</v>
       </c>
       <c r="S18">
-        <v>0.01554535271503597</v>
+        <v>0.07410425407118844</v>
       </c>
       <c r="T18">
-        <v>0.01812664794945003</v>
+        <v>0.08683883225748498</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H19">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I19">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J19">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N19">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O19">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P19">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q19">
-        <v>39.89469572914501</v>
+        <v>28.95067701931377</v>
       </c>
       <c r="R19">
-        <v>359.052261562305</v>
+        <v>260.556093173824</v>
       </c>
       <c r="S19">
-        <v>0.06189718117721821</v>
+        <v>0.02460943638920171</v>
       </c>
       <c r="T19">
-        <v>0.07217516596953991</v>
+        <v>0.02883848903600281</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H20">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I20">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J20">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N20">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O20">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P20">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q20">
-        <v>3.954302355134999</v>
+        <v>10.3393006439275</v>
       </c>
       <c r="R20">
-        <v>15.81720942054</v>
+        <v>41.35720257571001</v>
       </c>
       <c r="S20">
-        <v>0.006135155685032147</v>
+        <v>0.008788891580525714</v>
       </c>
       <c r="T20">
-        <v>0.003179508493095358</v>
+        <v>0.004577437504958641</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H21">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I21">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J21">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.99588</v>
       </c>
       <c r="O21">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P21">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q21">
-        <v>22.39259211614</v>
+        <v>21.99737001476</v>
       </c>
       <c r="R21">
-        <v>134.35555269684</v>
+        <v>131.98422008856</v>
       </c>
       <c r="S21">
-        <v>0.0347424214148774</v>
+        <v>0.01869879857202734</v>
       </c>
       <c r="T21">
-        <v>0.02700758455782901</v>
+        <v>0.01460808472212578</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H22">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I22">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J22">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N22">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O22">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P22">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q22">
-        <v>11.44598676236667</v>
+        <v>25.870709728598</v>
       </c>
       <c r="R22">
-        <v>68.67592057419999</v>
+        <v>155.224258371588</v>
       </c>
       <c r="S22">
-        <v>0.0177586093447675</v>
+        <v>0.02199131940799515</v>
       </c>
       <c r="T22">
-        <v>0.01380494289044802</v>
+        <v>0.01718030470384877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H23">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I23">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J23">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N23">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O23">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P23">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q23">
-        <v>9.511246713578499</v>
+        <v>13.6763721045665</v>
       </c>
       <c r="R23">
-        <v>38.044986854314</v>
+        <v>54.70548841826601</v>
       </c>
       <c r="S23">
-        <v>0.01475683296467659</v>
+        <v>0.01162555919220295</v>
       </c>
       <c r="T23">
-        <v>0.007647642236177895</v>
+        <v>0.006054832987178955</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H24">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I24">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J24">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N24">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O24">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P24">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q24">
-        <v>3.7561604826755</v>
+        <v>33.14671108756</v>
       </c>
       <c r="R24">
-        <v>22.536962896053</v>
+        <v>198.88026652536</v>
       </c>
       <c r="S24">
-        <v>0.005827735784860828</v>
+        <v>0.02817626259573705</v>
       </c>
       <c r="T24">
-        <v>0.004530284896115962</v>
+        <v>0.0220121752510415</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H25">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I25">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J25">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N25">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O25">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P25">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q25">
-        <v>14.9559646660185</v>
+        <v>11.00776046186133</v>
       </c>
       <c r="R25">
-        <v>89.735787996111</v>
+        <v>66.046562771168</v>
       </c>
       <c r="S25">
-        <v>0.02320438939797024</v>
+        <v>0.009357113848944703</v>
       </c>
       <c r="T25">
-        <v>0.01803830830599818</v>
+        <v>0.007310069218267464</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H26">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I26">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J26">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N26">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O26">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P26">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q26">
-        <v>3.410705210989999</v>
+        <v>8.444318707064168</v>
       </c>
       <c r="R26">
-        <v>20.46423126594</v>
+        <v>50.66591224238501</v>
       </c>
       <c r="S26">
-        <v>0.005291757075176838</v>
+        <v>0.007178067854268349</v>
       </c>
       <c r="T26">
-        <v>0.004113633156442234</v>
+        <v>0.005607730515541398</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H27">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I27">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J27">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.99588</v>
       </c>
       <c r="O27">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P27">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q27">
-        <v>19.31428701169333</v>
+        <v>17.96570285737334</v>
       </c>
       <c r="R27">
-        <v>173.82858310524</v>
+        <v>161.69132571636</v>
       </c>
       <c r="S27">
-        <v>0.02996638777716518</v>
+        <v>0.01527169196633552</v>
       </c>
       <c r="T27">
-        <v>0.03494228606520998</v>
+        <v>0.01789608320837555</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H28">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I28">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J28">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N28">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O28">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P28">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q28">
-        <v>9.872509279577777</v>
+        <v>21.12913877347534</v>
       </c>
       <c r="R28">
-        <v>88.8525835162</v>
+        <v>190.162248961278</v>
       </c>
       <c r="S28">
-        <v>0.01531733691367321</v>
+        <v>0.01796076120284049</v>
       </c>
       <c r="T28">
-        <v>0.01786077027951355</v>
+        <v>0.02104726036121878</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H29">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I29">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J29">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N29">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O29">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P29">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q29">
-        <v>8.203737553575666</v>
+        <v>11.16977335166183</v>
       </c>
       <c r="R29">
-        <v>49.222425321454</v>
+        <v>67.01864010997102</v>
       </c>
       <c r="S29">
-        <v>0.01272821412479298</v>
+        <v>0.009494832421229433</v>
       </c>
       <c r="T29">
-        <v>0.009894483609547604</v>
+        <v>0.00741765926283616</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H30">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I30">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J30">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N30">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O30">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P30">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q30">
-        <v>3.239801861620333</v>
+        <v>27.07159818190667</v>
       </c>
       <c r="R30">
-        <v>29.158216754583</v>
+        <v>243.64438363716</v>
       </c>
       <c r="S30">
-        <v>0.00502659812643971</v>
+        <v>0.02301213104506018</v>
       </c>
       <c r="T30">
-        <v>0.005861261323019578</v>
+        <v>0.02696669189584618</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H31">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I31">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J31">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N31">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O31">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P31">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q31">
-        <v>12.899971231469</v>
+        <v>8.990263538334222</v>
       </c>
       <c r="R31">
-        <v>116.099741083221</v>
+        <v>80.91237184500801</v>
       </c>
       <c r="S31">
-        <v>0.02001448668555246</v>
+        <v>0.007642146624799027</v>
       </c>
       <c r="T31">
-        <v>0.02333787857299994</v>
+        <v>0.00895542499085822</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H32">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I32">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J32">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N32">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O32">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P32">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q32">
-        <v>10.12483487653</v>
+        <v>28.9105606721925</v>
       </c>
       <c r="R32">
-        <v>60.74900925917999</v>
+        <v>173.463364033155</v>
       </c>
       <c r="S32">
-        <v>0.01570882362399273</v>
+        <v>0.02457533560834641</v>
       </c>
       <c r="T32">
-        <v>0.01221150872769421</v>
+        <v>0.01919901876361439</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H33">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I33">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J33">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>9.99588</v>
       </c>
       <c r="O33">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P33">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q33">
-        <v>57.33534698958667</v>
+        <v>61.50863799612</v>
       </c>
       <c r="R33">
-        <v>516.0181229062799</v>
+        <v>553.57774196508</v>
       </c>
       <c r="S33">
-        <v>0.08895659675079257</v>
+        <v>0.05228523371464251</v>
       </c>
       <c r="T33">
-        <v>0.1037277790759395</v>
+        <v>0.06127028329206988</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H34">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I34">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J34">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N34">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O34">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P34">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q34">
-        <v>29.30699667348889</v>
+        <v>72.33919865562601</v>
       </c>
       <c r="R34">
-        <v>263.7629700614</v>
+        <v>651.052787900634</v>
       </c>
       <c r="S34">
-        <v>0.04547021727336658</v>
+        <v>0.06149171940171958</v>
       </c>
       <c r="T34">
-        <v>0.05302051589360868</v>
+        <v>0.0720588739915053</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H35">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I35">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J35">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N35">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O35">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P35">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q35">
-        <v>24.35317125405633</v>
+        <v>38.24161798958551</v>
       </c>
       <c r="R35">
-        <v>146.119027524338</v>
+        <v>229.449707937513</v>
       </c>
       <c r="S35">
-        <v>0.03778428750494076</v>
+        <v>0.03250717296548954</v>
       </c>
       <c r="T35">
-        <v>0.02937222848002262</v>
+        <v>0.02539561752737691</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H36">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I36">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J36">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N36">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O36">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P36">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q36">
-        <v>9.617500444155668</v>
+        <v>92.68421868972001</v>
       </c>
       <c r="R36">
-        <v>86.557503997401</v>
+        <v>834.1579682074801</v>
       </c>
       <c r="S36">
-        <v>0.01492168712115248</v>
+        <v>0.07878594281597873</v>
       </c>
       <c r="T36">
-        <v>0.01739942310831946</v>
+        <v>0.09232505418477197</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H37">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I37">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J37">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N37">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O37">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P37">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q37">
-        <v>38.29415635504301</v>
+        <v>30.779695615536</v>
       </c>
       <c r="R37">
-        <v>344.647407195387</v>
+        <v>277.017260539824</v>
       </c>
       <c r="S37">
-        <v>0.05941392184137401</v>
+        <v>0.02616418817508809</v>
       </c>
       <c r="T37">
-        <v>0.06927956311168423</v>
+        <v>0.03066041992551574</v>
       </c>
     </row>
   </sheetData>
